--- a/source_code/input_files/input_file_template/template_conductor_diagnostic.xlsx
+++ b/source_code/input_files/input_file_template/template_conductor_diagnostic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/OPENSC2/source_code/Description_of_Components/input_file_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/OPENSC2/source_code/input_files/input_file_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0D969C7C-59B6-4D41-9C8A-C3C1D111D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E67D873C-0314-40F4-BCB5-343BD177E846}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{0D969C7C-59B6-4D41-9C8A-C3C1D111D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D546EB-C341-4487-9748-E32D1A39D37A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spatial_distribution" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,8 @@
     <sheetNames>
       <sheetName val="CONDUCTOR_files"/>
       <sheetName val="CONDUCTOR_input"/>
-      <sheetName val="CONDUCTOR_COUPLING"/>
+      <sheetName val="CONDUCTOR_operation"/>
+      <sheetName val="CONDUCTOR_coupling"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -271,6 +272,7 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -569,11 +571,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,11 +834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470E6858-601C-4654-9D3B-60211F710697}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
